--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>0.6335429755643333</v>
+        <v>2.406284272738222</v>
       </c>
       <c r="R2">
-        <v>5.701886780079</v>
+        <v>21.656558454644</v>
       </c>
       <c r="S2">
-        <v>0.04458467035656431</v>
+        <v>0.1510774015103817</v>
       </c>
       <c r="T2">
-        <v>0.04458467035656431</v>
+        <v>0.1510774015103817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>0.052316704314</v>
+        <v>0.1669101234986667</v>
       </c>
       <c r="R3">
-        <v>0.470850338826</v>
+        <v>1.502191111488</v>
       </c>
       <c r="S3">
-        <v>0.003681712379343838</v>
+        <v>0.0104793718803891</v>
       </c>
       <c r="T3">
-        <v>0.003681712379343837</v>
+        <v>0.0104793718803891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>0.0005788812423333335</v>
+        <v>0.001161054541333333</v>
       </c>
       <c r="R4">
-        <v>0.005209931181000001</v>
+        <v>0.010449490872</v>
       </c>
       <c r="S4">
-        <v>4.073792995974791E-05</v>
+        <v>7.289625132979903E-05</v>
       </c>
       <c r="T4">
-        <v>4.073792995974791E-05</v>
+        <v>7.289625132979903E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3.174364</v>
       </c>
       <c r="I5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J5">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,22 +747,22 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
-        <v>9.39900646394711</v>
+        <v>9.399006463947112</v>
       </c>
       <c r="R5">
         <v>84.591058175524</v>
       </c>
       <c r="S5">
-        <v>0.661441482325687</v>
+        <v>0.5901121033121134</v>
       </c>
       <c r="T5">
-        <v>0.661441482325687</v>
+        <v>0.5901121033121133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>0.7761510441839999</v>
+        <v>0.6519551108053334</v>
       </c>
       <c r="R6">
-        <v>6.985359397655999</v>
+        <v>5.867595997248</v>
       </c>
       <c r="S6">
-        <v>0.05462050687409588</v>
+        <v>0.04093268827701724</v>
       </c>
       <c r="T6">
-        <v>0.05462050687409587</v>
+        <v>0.04093268827701724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N7">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O7">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P7">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q7">
-        <v>0.008588065448444445</v>
+        <v>0.004535108034666667</v>
       </c>
       <c r="R7">
-        <v>0.077292589036</v>
+        <v>0.040815972312</v>
       </c>
       <c r="S7">
-        <v>0.0006043726815508098</v>
+        <v>0.0002847345782078474</v>
       </c>
       <c r="T7">
-        <v>0.0006043726815508098</v>
+        <v>0.0002847345782078473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.041014</v>
       </c>
       <c r="I8">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J8">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q8">
         <v>3.082348878408222</v>
@@ -945,10 +945,10 @@
         <v>27.741139905674</v>
       </c>
       <c r="S8">
-        <v>0.2169158430733819</v>
+        <v>0.1935237928345194</v>
       </c>
       <c r="T8">
-        <v>0.2169158430733819</v>
+        <v>0.1935237928345194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.041014</v>
       </c>
       <c r="I9">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J9">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N9">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O9">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P9">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q9">
-        <v>0.254534169084</v>
+        <v>0.2138048433386667</v>
       </c>
       <c r="R9">
-        <v>2.290807521756</v>
+        <v>1.924243590048</v>
       </c>
       <c r="S9">
-        <v>0.01791247391383914</v>
+        <v>0.01342363432612354</v>
       </c>
       <c r="T9">
-        <v>0.01791247391383913</v>
+        <v>0.01342363432612354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N10">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O10">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P10">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q10">
-        <v>0.002816405542888889</v>
+        <v>0.001487262001333333</v>
       </c>
       <c r="R10">
-        <v>0.02534764988600001</v>
+        <v>0.013385358012</v>
       </c>
       <c r="S10">
-        <v>0.0001982004655773361</v>
+        <v>9.337702991795017E-05</v>
       </c>
       <c r="T10">
-        <v>0.000198200465577336</v>
+        <v>9.337702991795017E-05</v>
       </c>
     </row>
   </sheetData>
